--- a/src/test/java/Utils/RecipeApi.xlsx
+++ b/src/test/java/Utils/RecipeApi.xlsx
@@ -3,12 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91948\git\DieticianApiAutomation\src\test\java\Utils\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C839E02-8FF0-444A-9214-BEAA46D9E59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{31450E7B-648F-461D-B28A-016EA1E97985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +13,9 @@
     <sheet name="GETRI" sheetId="3" r:id="rId3"/>
     <sheet name="GETRNP" sheetId="4" r:id="rId4"/>
     <sheet name="GETRNN" sheetId="5" r:id="rId5"/>
-    <sheet name="UserC" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A4:O9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>RecipeFoodCategory</t>
   </si>
@@ -41,30 +36,12 @@
     <t>vegetarian</t>
   </si>
   <si>
-    <t>Vegetarian</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>"11"</t>
-  </si>
-  <si>
     <t>Lunch</t>
   </si>
   <si>
-    <t>Snack</t>
-  </si>
-  <si>
     <t>Breakfast</t>
   </si>
   <si>
-    <t>Main Course</t>
-  </si>
-  <si>
-    <t>Dinner</t>
-  </si>
-  <si>
     <t>RecipeType</t>
   </si>
   <si>
@@ -80,40 +57,16 @@
     <t>flour</t>
   </si>
   <si>
-    <t>almond</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>Carbohydrates</t>
-  </si>
-  <si>
-    <t>Fiber</t>
-  </si>
-  <si>
-    <t>Fat</t>
-  </si>
-  <si>
     <t>energy</t>
   </si>
   <si>
     <t>protein</t>
   </si>
   <si>
-    <t>carbohydrates</t>
-  </si>
-  <si>
-    <t>fiber</t>
-  </si>
-  <si>
-    <t>fat</t>
+    <t>Energy 86</t>
+  </si>
+  <si>
+    <t>Protein 3</t>
   </si>
 </sst>
 </file>
@@ -431,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,17 +407,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -477,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26D6DE0-FA4E-4A44-896D-B966A55C4F80}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,34 +431,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-    </row>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -527,7 +458,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,29 +468,21 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-    </row>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -570,7 +493,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,34 +503,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-    </row>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -618,7 +529,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,59 +539,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FBF894-1FEF-41FA-AE4F-D08406B89A60}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/Utils/RecipeApi.xlsx
+++ b/src/test/java/Utils/RecipeApi.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{31450E7B-648F-461D-B28A-016EA1E97985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{57A1E150-9541-42DE-B0A6-75626FDEC57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
